--- a/00_gestion/Fiche_Suivi_RefSQL.xlsx
+++ b/00_gestion/Fiche_Suivi_RefSQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ILYASS\Desktop\Stage\Mission\00_gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F48C4-1788-4480-8EBD-D63C0D78ACEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E30F9-6FD6-41FC-802F-DF236F602D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16208,8 +16208,8 @@
   </sheetPr>
   <dimension ref="B1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16927,8 +16927,8 @@
       <c r="H29" s="24"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="38"/>
       <c r="P29" s="40" t="s">
         <v>207</v>
@@ -16937,8 +16937,8 @@
       <c r="R29" s="24"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
       <c r="W29" s="38"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.3">
@@ -17033,8 +17033,8 @@
       <c r="H35" s="24"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="38"/>
     </row>
     <row r="36" spans="6:13" x14ac:dyDescent="0.3">
@@ -17109,8 +17109,8 @@
       <c r="H41" s="24"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="32"/>
       <c r="M41" s="38"/>
     </row>
     <row r="42" spans="6:13" x14ac:dyDescent="0.3">

--- a/00_gestion/Fiche_Suivi_RefSQL.xlsx
+++ b/00_gestion/Fiche_Suivi_RefSQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ILYASS\Desktop\Stage\Mission\00_gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C76A3B2-9A15-49B9-BFA0-91552D7DB3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B49B0-E201-404A-9A3D-23DBD9400BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDO" sheetId="7" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4463" uniqueCount="423">
   <si>
     <t>idSQL</t>
   </si>
@@ -1395,10 +1395,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ce programme doit  :
-faciliter l'elaboration de nouvelle bdd source 
-automatiquement lier les colonnes/lignes a leur filtres ou composants 
-automatiquement créer les liaison dans la table PRM_RA_LIENS   à verifier par </t>
+      <t xml:space="preserve"> à verifier par </t>
     </r>
     <r>
       <rPr>
@@ -1411,6 +1408,28 @@
       </rPr>
       <t>Aziz</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ce programme doit  :
+faciliter l'elaboration de nouvelle bdd source 
+automatiquement lier les colonnes/lignes a leur filtres ou composants 
+automatiquement créer les liaison dans la table PRM_RA_LIENS  </t>
+    </r>
+  </si>
+  <si>
+    <t>Ordre du traitement des colonnes</t>
+  </si>
+  <si>
+    <t>Ajout des champ cols_ordre et objet_ordre
+qui seront attribué vis-à-vis le contenu du 
+de la table PRM_COLS_COMPOSANT</t>
   </si>
 </sst>
 </file>
@@ -4024,7 +4043,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4589,7 +4608,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="4">
-        <v>45485</v>
+        <v>45488</v>
       </c>
       <c r="G29" s="51"/>
     </row>
@@ -4608,7 +4627,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="76"/>
     </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="73" t="s">
         <v>399</v>
       </c>
@@ -20444,10 +20463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCB2EFF-C609-4883-B078-ECB207CEEBFE}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20482,6 +20501,20 @@
       </c>
       <c r="D2" s="41" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>45485</v>
+      </c>
+      <c r="B3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -20788,7 +20821,7 @@
   </sheetPr>
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A22" sqref="A2:E22"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>

--- a/00_gestion/Fiche_Suivi_RefSQL.xlsx
+++ b/00_gestion/Fiche_Suivi_RefSQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ILYASS\Desktop\Stage\Mission\00_gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A502F3A-78A3-4590-BAA9-BFBDDBD5E87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5441396A-0CA9-4F76-98B9-302C54740E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5538,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17497654-F13B-4E71-A230-9CAA573B118D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/00_gestion/Fiche_Suivi_RefSQL.xlsx
+++ b/00_gestion/Fiche_Suivi_RefSQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ILYASS\Desktop\Stage\Mission\00_gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5441396A-0CA9-4F76-98B9-302C54740E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0A307-CF9C-44CD-9992-0E5476A13C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,36 +1196,6 @@
     <t>ajout des  cols_order , objet_order et la fonction qui definit l'ordre</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> à verifier par </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aziz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Ce programme doit  :
-faciliter l'elaboration de nouvelle bdd source 
-automatiquement lier les colonnes/lignes a leur filtres ou composants 
-automatiquement créer les liaison dans la table PRM_RA_LIENS  </t>
-    </r>
-  </si>
-  <si>
     <t>Ordre du traitement des colonnes</t>
   </si>
   <si>
@@ -2245,6 +2215,9 @@
     <t>Révision des données source : 
 nouveaux objets , nouvelles colonnes etc ….
 Pour Test du moteur avec des donées pratiques</t>
+  </si>
+  <si>
+    <t>solution module 3 : PowerBI</t>
   </si>
 </sst>
 </file>
@@ -2924,7 +2897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3075,9 +3048,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5536,10 +5508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17497654-F13B-4E71-A230-9CAA573B118D}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5921,9 +5893,7 @@
       <c r="F20" s="4">
         <v>45436</v>
       </c>
-      <c r="G20" s="50" t="s">
-        <v>332</v>
-      </c>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
@@ -5942,9 +5912,7 @@
       <c r="F21" s="4">
         <v>45448</v>
       </c>
-      <c r="G21" s="50" t="s">
-        <v>332</v>
-      </c>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
@@ -5963,9 +5931,7 @@
       <c r="F22" s="4">
         <v>45450</v>
       </c>
-      <c r="G22" s="50" t="s">
-        <v>332</v>
-      </c>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
@@ -5984,9 +5950,7 @@
       <c r="F23" s="4">
         <v>45458</v>
       </c>
-      <c r="G23" s="50" t="s">
-        <v>332</v>
-      </c>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
@@ -6005,9 +5969,7 @@
       <c r="F24" s="4">
         <v>45466</v>
       </c>
-      <c r="G24" s="50" t="s">
-        <v>332</v>
-      </c>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
@@ -6026,9 +5988,7 @@
       <c r="F25" s="4">
         <v>45471</v>
       </c>
-      <c r="G25" s="50" t="s">
-        <v>332</v>
-      </c>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
@@ -6047,9 +6007,7 @@
       <c r="F26" s="4">
         <v>45477</v>
       </c>
-      <c r="G26" s="50" t="s">
-        <v>332</v>
-      </c>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
@@ -6068,9 +6026,7 @@
       <c r="F27" s="4">
         <v>45480</v>
       </c>
-      <c r="G27" s="50" t="s">
-        <v>332</v>
-      </c>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
@@ -6091,7 +6047,7 @@
       </c>
       <c r="G28" s="50"/>
     </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>350</v>
       </c>
@@ -6108,9 +6064,7 @@
       <c r="F29" s="4">
         <v>45484</v>
       </c>
-      <c r="G29" s="62" t="s">
-        <v>352</v>
-      </c>
+      <c r="G29" s="50"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
@@ -6118,10 +6072,10 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>130</v>
@@ -6137,26 +6091,26 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="62" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="64" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="12" t="s">
@@ -6165,15 +6119,17 @@
       <c r="F32" s="4">
         <v>45488</v>
       </c>
-      <c r="G32" s="62"/>
+      <c r="G32" s="50" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="64" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="12" t="s">
@@ -6182,30 +6138,30 @@
       <c r="F33" s="4">
         <v>45488</v>
       </c>
-      <c r="G33" s="62"/>
+      <c r="G33" s="50" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>130</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="62" t="s">
-        <v>600</v>
-      </c>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
@@ -6218,18 +6174,20 @@
       <c r="F35" s="4">
         <v>45488</v>
       </c>
-      <c r="G35" s="50"/>
+      <c r="G35" s="62" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>130</v>
@@ -6237,7 +6195,65 @@
       <c r="F36" s="4">
         <v>45487</v>
       </c>
-      <c r="G36" s="50"/>
+      <c r="G36" s="50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="50"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="50"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="50"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="50"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="116" t="s">
+        <v>622</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="117"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8458,7 +8474,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F110" s="43" t="s">
         <v>203</v>
@@ -8472,7 +8488,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F111" s="43" t="s">
         <v>203</v>
@@ -8486,7 +8502,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F112" s="43" t="s">
         <v>203</v>
@@ -8500,7 +8516,7 @@
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F113" s="43" t="s">
         <v>203</v>
@@ -8514,7 +8530,7 @@
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F114" s="43" t="s">
         <v>203</v>
@@ -8528,7 +8544,7 @@
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F115" s="43" t="s">
         <v>203</v>
@@ -19590,7 +19606,7 @@
   <sheetData>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -19670,7 +19686,7 @@
         <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E13">
         <f>SUM(E10:E12)</f>
@@ -19696,7 +19712,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I15" t="s">
         <v>203</v>
@@ -19710,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -19718,10 +19734,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -19729,10 +19745,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -19740,10 +19756,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -19751,10 +19767,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -19762,10 +19778,10 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -19773,10 +19789,10 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -19784,7 +19800,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -19792,7 +19808,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -19800,10 +19816,10 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E25" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -19922,16 +19938,16 @@
         <v>13335</v>
       </c>
       <c r="H2" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K2" s="113">
         <v>1540</v>
       </c>
       <c r="S2" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -19942,16 +19958,16 @@
         <v>17175</v>
       </c>
       <c r="H3" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K3" s="113">
         <v>2798</v>
       </c>
       <c r="S3" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -19962,16 +19978,16 @@
         <v>13315</v>
       </c>
       <c r="H4" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K4" s="113">
         <v>2253</v>
       </c>
       <c r="S4" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -19982,16 +19998,16 @@
         <v>13335</v>
       </c>
       <c r="H5" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K5" s="113">
         <v>1562</v>
       </c>
       <c r="S5" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -20002,16 +20018,16 @@
         <v>17175</v>
       </c>
       <c r="H6" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K6" s="113">
         <v>2829</v>
       </c>
       <c r="S6" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -20022,16 +20038,16 @@
         <v>13315</v>
       </c>
       <c r="H7" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K7" s="113">
         <v>2276</v>
       </c>
       <c r="S7" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -20042,16 +20058,16 @@
         <v>13335</v>
       </c>
       <c r="H8" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K8" s="113">
         <v>0</v>
       </c>
       <c r="S8" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -20062,16 +20078,16 @@
         <v>17175</v>
       </c>
       <c r="H9" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K9" s="113">
         <v>0</v>
       </c>
       <c r="S9" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -20082,16 +20098,16 @@
         <v>13315</v>
       </c>
       <c r="H10" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K10" s="113">
         <v>0</v>
       </c>
       <c r="S10" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -20102,16 +20118,16 @@
         <v>13335</v>
       </c>
       <c r="H11" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K11" s="113">
         <v>1516</v>
       </c>
       <c r="S11" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -20122,16 +20138,16 @@
         <v>17175</v>
       </c>
       <c r="H12" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K12" s="113">
         <v>2797</v>
       </c>
       <c r="S12" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -20142,16 +20158,16 @@
         <v>13315</v>
       </c>
       <c r="H13" s="113" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K13" s="113">
         <v>2261</v>
       </c>
       <c r="S13" s="113" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -20162,25 +20178,25 @@
         <v>13335</v>
       </c>
       <c r="E14" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H14" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K14" s="113">
         <v>200000</v>
       </c>
       <c r="N14" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S14" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -20191,25 +20207,25 @@
         <v>17175</v>
       </c>
       <c r="E15" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H15" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K15" s="113">
         <v>300000</v>
       </c>
       <c r="N15" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S15" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -20220,25 +20236,25 @@
         <v>13315</v>
       </c>
       <c r="E16" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H16" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K16" s="113">
         <v>310000</v>
       </c>
       <c r="N16" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S16" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
@@ -20249,25 +20265,25 @@
         <v>13335</v>
       </c>
       <c r="E17" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H17" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K17" s="113">
         <v>200000</v>
       </c>
       <c r="N17" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S17" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -20278,25 +20294,25 @@
         <v>17175</v>
       </c>
       <c r="E18" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H18" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K18" s="113">
         <v>310000</v>
       </c>
       <c r="N18" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S18" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
@@ -20307,25 +20323,25 @@
         <v>13315</v>
       </c>
       <c r="E19" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H19" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K19" s="113">
         <v>300000</v>
       </c>
       <c r="N19" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S19" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
@@ -20336,25 +20352,25 @@
         <v>13335</v>
       </c>
       <c r="E20" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H20" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K20" s="113">
         <v>200000</v>
       </c>
       <c r="N20" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S20" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
@@ -20365,25 +20381,25 @@
         <v>17175</v>
       </c>
       <c r="E21" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H21" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K21" s="113">
         <v>300000</v>
       </c>
       <c r="N21" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S21" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -20394,25 +20410,25 @@
         <v>13315</v>
       </c>
       <c r="E22" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H22" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K22" s="113">
         <v>310000</v>
       </c>
       <c r="N22" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S22" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
@@ -20423,25 +20439,25 @@
         <v>13335</v>
       </c>
       <c r="E23" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H23" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K23" s="113">
         <v>65108</v>
       </c>
       <c r="N23" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S23" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -20452,25 +20468,25 @@
         <v>17175</v>
       </c>
       <c r="E24" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H24" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K24" s="113">
         <v>83508</v>
       </c>
       <c r="N24" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S24" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
@@ -20481,25 +20497,25 @@
         <v>13315</v>
       </c>
       <c r="E25" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H25" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K25" s="113">
         <v>68044</v>
       </c>
       <c r="N25" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S25" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
@@ -20510,25 +20526,25 @@
         <v>13335</v>
       </c>
       <c r="E26" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H26" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K26" s="113">
         <v>86394</v>
       </c>
       <c r="N26" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S26" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
@@ -20539,25 +20555,25 @@
         <v>17175</v>
       </c>
       <c r="E27" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H27" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K27" s="113">
         <v>66022</v>
       </c>
       <c r="N27" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S27" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
@@ -20568,25 +20584,25 @@
         <v>13315</v>
       </c>
       <c r="E28" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H28" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K28" s="113">
         <v>69210</v>
       </c>
       <c r="N28" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S28" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
@@ -20597,25 +20613,25 @@
         <v>13335</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H29" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K29" s="113">
         <v>66215</v>
       </c>
       <c r="N29" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S29" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V29" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -20626,25 +20642,25 @@
         <v>17175</v>
       </c>
       <c r="E30" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H30" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K30" s="113">
         <v>85632</v>
       </c>
       <c r="N30" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S30" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -20655,25 +20671,25 @@
         <v>13315</v>
       </c>
       <c r="E31" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H31" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K31" s="113">
         <v>79454</v>
       </c>
       <c r="N31" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S31" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V31" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="W31" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
@@ -20684,25 +20700,25 @@
         <v>13335</v>
       </c>
       <c r="E32" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H32" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K32" s="113">
         <v>60252</v>
       </c>
       <c r="N32" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S32" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -20713,25 +20729,25 @@
         <v>17175</v>
       </c>
       <c r="E33" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H33" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K33" s="113">
         <v>69103</v>
       </c>
       <c r="N33" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S33" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
@@ -20742,25 +20758,25 @@
         <v>13315</v>
       </c>
       <c r="E34" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H34" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K34" s="113">
         <v>60826</v>
       </c>
       <c r="N34" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S34" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
@@ -20771,25 +20787,25 @@
         <v>13335</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H35" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K35" s="113">
         <v>200000</v>
       </c>
       <c r="N35" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S35" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -20800,25 +20816,25 @@
         <v>17175</v>
       </c>
       <c r="E36" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H36" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K36" s="113">
         <v>300000</v>
       </c>
       <c r="N36" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S36" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
@@ -20829,25 +20845,25 @@
         <v>13315</v>
       </c>
       <c r="E37" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H37" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K37" s="113">
         <v>310000</v>
       </c>
       <c r="N37" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S37" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="W37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
@@ -20858,25 +20874,25 @@
         <v>13335</v>
       </c>
       <c r="E38" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H38" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K38" s="113">
         <v>100000</v>
       </c>
       <c r="N38" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S38" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -20887,25 +20903,25 @@
         <v>17175</v>
       </c>
       <c r="E39" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H39" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K39" s="113">
         <v>100000</v>
       </c>
       <c r="N39" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S39" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W39" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
@@ -20916,25 +20932,25 @@
         <v>13315</v>
       </c>
       <c r="E40" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H40" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K40" s="113">
         <v>168866</v>
       </c>
       <c r="N40" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S40" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V40" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
@@ -20945,25 +20961,25 @@
         <v>13335</v>
       </c>
       <c r="E41" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H41" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K41" s="113">
         <v>206830</v>
       </c>
       <c r="N41" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S41" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V41" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -20974,25 +20990,25 @@
         <v>17175</v>
       </c>
       <c r="E42" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H42" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K42" s="113">
         <v>176256</v>
       </c>
       <c r="N42" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S42" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -21003,25 +21019,25 @@
         <v>13315</v>
       </c>
       <c r="E43" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H43" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K43" s="113">
         <v>168809</v>
       </c>
       <c r="N43" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S43" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V43" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W43" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -21032,25 +21048,25 @@
         <v>13335</v>
       </c>
       <c r="E44" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H44" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K44" s="113">
         <v>407710</v>
       </c>
       <c r="N44" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S44" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W44" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -21061,25 +21077,25 @@
         <v>17175</v>
       </c>
       <c r="E45" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H45" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K45" s="113">
         <v>575384</v>
       </c>
       <c r="N45" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S45" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V45" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -21090,25 +21106,25 @@
         <v>13315</v>
       </c>
       <c r="E46" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H46" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K46" s="113">
         <v>569771</v>
       </c>
       <c r="N46" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S46" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V46" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W46" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -21119,25 +21135,25 @@
         <v>13335</v>
       </c>
       <c r="E47" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H47" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K47" s="113">
         <v>17667</v>
       </c>
       <c r="N47" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S47" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -21148,25 +21164,25 @@
         <v>17175</v>
       </c>
       <c r="E48" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H48" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K48" s="113">
         <v>173308</v>
       </c>
       <c r="N48" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S48" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -21177,25 +21193,25 @@
         <v>13315</v>
       </c>
       <c r="E49" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H49" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K49" s="113">
         <v>100010</v>
       </c>
       <c r="N49" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S49" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W49" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
@@ -21206,25 +21222,25 @@
         <v>13335</v>
       </c>
       <c r="E50" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H50" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K50" s="113">
         <v>50000</v>
       </c>
       <c r="N50" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S50" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V50" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
@@ -21235,25 +21251,25 @@
         <v>17175</v>
       </c>
       <c r="E51" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H51" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K51" s="113">
         <v>100000</v>
       </c>
       <c r="N51" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S51" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V51" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W51" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -21264,25 +21280,25 @@
         <v>13315</v>
       </c>
       <c r="E52" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H52" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K52" s="113">
         <v>100000</v>
       </c>
       <c r="N52" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S52" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V52" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -21293,25 +21309,25 @@
         <v>13335</v>
       </c>
       <c r="E53" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H53" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K53" s="113">
         <v>0</v>
       </c>
       <c r="N53" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S53" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W53" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -21322,25 +21338,25 @@
         <v>17175</v>
       </c>
       <c r="E54" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H54" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K54" s="113">
         <v>0</v>
       </c>
       <c r="N54" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S54" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V54" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -21351,25 +21367,25 @@
         <v>13315</v>
       </c>
       <c r="E55" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H55" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K55" s="113">
         <v>0</v>
       </c>
       <c r="N55" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S55" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W55" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -21380,25 +21396,25 @@
         <v>13335</v>
       </c>
       <c r="E56" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H56" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K56" s="113">
         <v>409415</v>
       </c>
       <c r="N56" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S56" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V56" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -21409,25 +21425,25 @@
         <v>17175</v>
       </c>
       <c r="E57" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H57" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K57" s="113">
         <v>563636</v>
       </c>
       <c r="N57" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S57" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V57" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W57" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -21438,25 +21454,25 @@
         <v>13315</v>
       </c>
       <c r="E58" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H58" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K58" s="113">
         <v>567273</v>
       </c>
       <c r="N58" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S58" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V58" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W58" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -21467,25 +21483,25 @@
         <v>13335</v>
       </c>
       <c r="E59" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H59" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K59" s="113">
         <v>0</v>
       </c>
       <c r="N59" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S59" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V59" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
@@ -21496,25 +21512,25 @@
         <v>17175</v>
       </c>
       <c r="E60" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H60" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K60" s="113">
         <v>0</v>
       </c>
       <c r="N60" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S60" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V60" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
@@ -21525,25 +21541,25 @@
         <v>13315</v>
       </c>
       <c r="E61" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H61" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K61" s="113">
         <v>0</v>
       </c>
       <c r="N61" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S61" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V61" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W61" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
@@ -21554,25 +21570,25 @@
         <v>13335</v>
       </c>
       <c r="E62" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H62" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K62" s="113">
         <v>100000</v>
       </c>
       <c r="N62" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S62" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V62" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W62" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
@@ -21583,25 +21599,25 @@
         <v>17175</v>
       </c>
       <c r="E63" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H63" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K63" s="113">
         <v>100000</v>
       </c>
       <c r="N63" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S63" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V63" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W63" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -21612,25 +21628,25 @@
         <v>13315</v>
       </c>
       <c r="E64" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H64" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K64" s="113">
         <v>100010</v>
       </c>
       <c r="N64" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S64" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V64" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
@@ -21641,25 +21657,25 @@
         <v>13335</v>
       </c>
       <c r="E65" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H65" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K65" s="113">
         <v>50000</v>
       </c>
       <c r="N65" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S65" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V65" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W65" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -21670,25 +21686,25 @@
         <v>17175</v>
       </c>
       <c r="E66" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H66" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K66" s="113">
         <v>100000</v>
       </c>
       <c r="N66" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S66" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V66" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W66" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
@@ -21699,25 +21715,25 @@
         <v>13315</v>
       </c>
       <c r="E67" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H67" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K67" s="113">
         <v>100000</v>
       </c>
       <c r="N67" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S67" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V67" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W67" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
@@ -21728,25 +21744,25 @@
         <v>13335</v>
       </c>
       <c r="E68" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H68" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K68" s="113">
         <v>0</v>
       </c>
       <c r="N68" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S68" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V68" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W68" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -21757,25 +21773,25 @@
         <v>17175</v>
       </c>
       <c r="E69" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H69" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K69" s="113">
         <v>0</v>
       </c>
       <c r="N69" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S69" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V69" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W69" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
@@ -21786,25 +21802,25 @@
         <v>13315</v>
       </c>
       <c r="E70" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H70" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K70" s="113">
         <v>0</v>
       </c>
       <c r="N70" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S70" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V70" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W70" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
@@ -21815,25 +21831,25 @@
         <v>13335</v>
       </c>
       <c r="E71" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H71" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K71" s="113">
         <v>0</v>
       </c>
       <c r="N71" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S71" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W71" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -21844,25 +21860,25 @@
         <v>17175</v>
       </c>
       <c r="E72" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H72" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K72" s="113">
         <v>0</v>
       </c>
       <c r="N72" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S72" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V72" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -21873,25 +21889,25 @@
         <v>13315</v>
       </c>
       <c r="E73" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H73" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K73" s="113">
         <v>0</v>
       </c>
       <c r="N73" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S73" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V73" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W73" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
@@ -21902,25 +21918,25 @@
         <v>13335</v>
       </c>
       <c r="E74" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H74" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K74" s="113">
         <v>100000</v>
       </c>
       <c r="N74" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S74" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V74" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W74" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
@@ -21931,25 +21947,25 @@
         <v>17175</v>
       </c>
       <c r="E75" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H75" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K75" s="113">
         <v>100000</v>
       </c>
       <c r="N75" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S75" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V75" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W75" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
@@ -21960,25 +21976,25 @@
         <v>13315</v>
       </c>
       <c r="E76" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H76" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K76" s="113">
         <v>100010</v>
       </c>
       <c r="N76" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S76" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W76" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.25">
@@ -21989,25 +22005,25 @@
         <v>13335</v>
       </c>
       <c r="E77" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H77" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K77" s="113">
         <v>50000</v>
       </c>
       <c r="N77" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S77" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V77" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W77" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
@@ -22018,25 +22034,25 @@
         <v>17175</v>
       </c>
       <c r="E78" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H78" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K78" s="113">
         <v>100000</v>
       </c>
       <c r="N78" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S78" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V78" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W78" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.25">
@@ -22047,25 +22063,25 @@
         <v>13315</v>
       </c>
       <c r="E79" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H79" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K79" s="113">
         <v>100000</v>
       </c>
       <c r="N79" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S79" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V79" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W79" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.25">
@@ -22076,25 +22092,25 @@
         <v>13335</v>
       </c>
       <c r="E80" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H80" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K80" s="113">
         <v>0</v>
       </c>
       <c r="N80" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S80" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V80" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W80" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.25">
@@ -22105,25 +22121,25 @@
         <v>17175</v>
       </c>
       <c r="E81" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H81" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K81" s="113">
         <v>0</v>
       </c>
       <c r="N81" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S81" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V81" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W81" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.25">
@@ -22134,25 +22150,25 @@
         <v>13315</v>
       </c>
       <c r="E82" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H82" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K82" s="113">
         <v>0</v>
       </c>
       <c r="N82" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S82" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V82" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W82" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.25">
@@ -22163,25 +22179,25 @@
         <v>13335</v>
       </c>
       <c r="E83" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H83" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K83" s="113">
         <v>0</v>
       </c>
       <c r="N83" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S83" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.25">
@@ -22192,25 +22208,25 @@
         <v>17175</v>
       </c>
       <c r="E84" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H84" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K84" s="113">
         <v>0</v>
       </c>
       <c r="N84" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S84" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V84" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W84" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.25">
@@ -22221,25 +22237,25 @@
         <v>13315</v>
       </c>
       <c r="E85" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H85" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K85" s="113">
         <v>0</v>
       </c>
       <c r="N85" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S85" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V85" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W85" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.25">
@@ -22250,25 +22266,25 @@
         <v>13335</v>
       </c>
       <c r="E86" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H86" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K86" s="113">
         <v>90000</v>
       </c>
       <c r="N86" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S86" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V86" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W86" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.25">
@@ -22279,25 +22295,25 @@
         <v>17175</v>
       </c>
       <c r="E87" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H87" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K87" s="113">
         <v>100000</v>
       </c>
       <c r="N87" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S87" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V87" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W87" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.25">
@@ -22308,25 +22324,25 @@
         <v>13315</v>
       </c>
       <c r="E88" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H88" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K88" s="113">
         <v>100010</v>
       </c>
       <c r="N88" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S88" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V88" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.25">
@@ -22337,25 +22353,25 @@
         <v>13335</v>
       </c>
       <c r="E89" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H89" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K89" s="113">
         <v>50000</v>
       </c>
       <c r="N89" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S89" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V89" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W89" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.25">
@@ -22366,25 +22382,25 @@
         <v>17175</v>
       </c>
       <c r="E90" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H90" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K90" s="113">
         <v>100000</v>
       </c>
       <c r="N90" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S90" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V90" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W90" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.25">
@@ -22395,25 +22411,25 @@
         <v>13315</v>
       </c>
       <c r="E91" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H91" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K91" s="113">
         <v>100000</v>
       </c>
       <c r="N91" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S91" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V91" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W91" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.25">
@@ -22424,25 +22440,25 @@
         <v>13335</v>
       </c>
       <c r="E92" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H92" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K92" s="113">
         <v>0</v>
       </c>
       <c r="N92" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S92" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V92" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W92" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.25">
@@ -22453,25 +22469,25 @@
         <v>17175</v>
       </c>
       <c r="E93" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H93" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K93" s="113">
         <v>0</v>
       </c>
       <c r="N93" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S93" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V93" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W93" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.25">
@@ -22482,25 +22498,25 @@
         <v>13315</v>
       </c>
       <c r="E94" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H94" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K94" s="113">
         <v>0</v>
       </c>
       <c r="N94" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S94" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V94" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W94" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
@@ -22511,25 +22527,25 @@
         <v>13335</v>
       </c>
       <c r="E95" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H95" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K95" s="113">
         <v>0</v>
       </c>
       <c r="N95" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S95" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V95" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W95" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.25">
@@ -22540,25 +22556,25 @@
         <v>17175</v>
       </c>
       <c r="E96" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H96" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K96" s="113">
         <v>0</v>
       </c>
       <c r="N96" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S96" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V96" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W96" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.25">
@@ -22569,25 +22585,25 @@
         <v>13315</v>
       </c>
       <c r="E97" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H97" s="113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K97" s="113">
         <v>0</v>
       </c>
       <c r="N97" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S97" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V97" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W97" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -22720,14 +22736,14 @@
         <v>96</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" s="50" t="str">
         <f>"Mois " &amp; MID(B11,2,4) &amp; " année en cours"</f>
         <v>Mois M-00 année en cours</v>
       </c>
       <c r="D11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -22735,7 +22751,7 @@
         <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="50" t="str">
         <f>"Mois " &amp; MID(B12,2,4) &amp; " année en cours"</f>
@@ -22747,7 +22763,7 @@
         <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" s="50" t="str">
         <f>"Mois " &amp; MID(B13,2,4) &amp; " année en cours"</f>
@@ -22759,10 +22775,10 @@
         <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -22770,10 +22786,10 @@
         <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22781,10 +22797,10 @@
         <v>96</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -22792,10 +22808,10 @@
         <v>96</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -22803,10 +22819,10 @@
         <v>96</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -22814,10 +22830,10 @@
         <v>96</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -22825,10 +22841,10 @@
         <v>96</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22839,7 +22855,7 @@
         <v>124</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22850,7 +22866,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22858,10 +22874,10 @@
         <v>96</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22869,10 +22885,10 @@
         <v>96</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22880,10 +22896,10 @@
         <v>96</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22891,10 +22907,10 @@
         <v>96</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22902,10 +22918,10 @@
         <v>96</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22913,10 +22929,10 @@
         <v>96</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22924,10 +22940,10 @@
         <v>96</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22935,10 +22951,10 @@
         <v>96</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22946,10 +22962,10 @@
         <v>96</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22957,10 +22973,10 @@
         <v>96</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22968,10 +22984,10 @@
         <v>96</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22979,10 +22995,10 @@
         <v>96</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22990,10 +23006,10 @@
         <v>96</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23001,10 +23017,10 @@
         <v>96</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23012,10 +23028,10 @@
         <v>96</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23023,10 +23039,10 @@
         <v>96</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23034,10 +23050,10 @@
         <v>96</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23045,13 +23061,13 @@
         <v>96</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23059,7 +23075,7 @@
         <v>96</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C41" s="50" t="s">
         <v>111</v>
@@ -23070,7 +23086,7 @@
         <v>96</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>112</v>
@@ -23081,7 +23097,7 @@
         <v>96</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C43" s="50" t="s">
         <v>113</v>
@@ -23092,7 +23108,7 @@
         <v>96</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C44" s="50" t="s">
         <v>114</v>
@@ -23103,7 +23119,7 @@
         <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C45" s="50" t="s">
         <v>115</v>
@@ -23114,7 +23130,7 @@
         <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C46" s="50" t="s">
         <v>116</v>
@@ -23125,7 +23141,7 @@
         <v>96</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C47" s="50" t="s">
         <v>117</v>
@@ -23136,7 +23152,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C48" s="50" t="s">
         <v>118</v>
@@ -23147,7 +23163,7 @@
         <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C49" s="50" t="s">
         <v>119</v>
@@ -23158,7 +23174,7 @@
         <v>96</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C50" s="50" t="s">
         <v>120</v>
@@ -23169,7 +23185,7 @@
         <v>96</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C51" s="50" t="s">
         <v>123</v>
@@ -23312,7 +23328,7 @@
         <v>96</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C64" s="50" t="s">
         <v>110</v>
@@ -23323,7 +23339,7 @@
         <v>96</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C65" s="50" t="s">
         <v>111</v>
@@ -23334,7 +23350,7 @@
         <v>96</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C66" s="50" t="s">
         <v>112</v>
@@ -23345,7 +23361,7 @@
         <v>96</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C67" s="50" t="s">
         <v>113</v>
@@ -23356,7 +23372,7 @@
         <v>96</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C68" s="50" t="s">
         <v>114</v>
@@ -23367,7 +23383,7 @@
         <v>96</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C69" s="50" t="s">
         <v>115</v>
@@ -23378,7 +23394,7 @@
         <v>96</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C70" s="50" t="s">
         <v>116</v>
@@ -23389,7 +23405,7 @@
         <v>96</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C71" s="50" t="s">
         <v>117</v>
@@ -23400,7 +23416,7 @@
         <v>96</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C72" s="50" t="s">
         <v>118</v>
@@ -23411,7 +23427,7 @@
         <v>96</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C73" s="50" t="s">
         <v>119</v>
@@ -23422,7 +23438,7 @@
         <v>96</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C74" s="50" t="s">
         <v>120</v>
@@ -23484,7 +23500,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>88</v>
@@ -23530,11 +23546,11 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -23542,13 +23558,13 @@
         <v>245</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G5" s="50"/>
     </row>
@@ -23557,13 +23573,13 @@
         <v>245</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G6" s="50"/>
     </row>
@@ -23572,13 +23588,13 @@
         <v>245</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G7" s="50"/>
     </row>
@@ -23587,13 +23603,13 @@
         <v>245</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G8" s="50"/>
     </row>
@@ -23602,13 +23618,13 @@
         <v>245</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G9" s="50"/>
     </row>
@@ -23617,13 +23633,13 @@
         <v>245</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G10" s="50"/>
     </row>
@@ -23632,7 +23648,7 @@
         <v>245</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -23678,7 +23694,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>247</v>
@@ -23837,7 +23853,7 @@
         <v>257</v>
       </c>
       <c r="G25" s="85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -23944,7 +23960,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="84" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G33" s="50"/>
     </row>
@@ -23962,7 +23978,7 @@
         <v>261</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -23970,7 +23986,7 @@
         <v>81</v>
       </c>
       <c r="B35" s="86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -24110,13 +24126,13 @@
         <v>268</v>
       </c>
       <c r="B45" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="86" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G45" s="50"/>
     </row>
@@ -24164,7 +24180,7 @@
         <v>80</v>
       </c>
       <c r="B49" s="86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -24263,7 +24279,7 @@
         <v>83</v>
       </c>
       <c r="B56" s="86" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>270</v>
@@ -24271,7 +24287,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="86" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G56" s="50"/>
     </row>
@@ -24280,7 +24296,7 @@
         <v>83</v>
       </c>
       <c r="B57" s="86" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>270</v>
@@ -24288,7 +24304,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G57" s="50"/>
     </row>
@@ -24297,7 +24313,7 @@
         <v>83</v>
       </c>
       <c r="B58" s="86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>270</v>
@@ -24305,7 +24321,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="86" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G58" s="50"/>
     </row>
@@ -24314,14 +24330,14 @@
         <v>83</v>
       </c>
       <c r="B59" s="86" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="86"/>
       <c r="G59" s="50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -24329,13 +24345,13 @@
         <v>83</v>
       </c>
       <c r="B60" s="88" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
       <c r="E60" s="53"/>
       <c r="F60" s="88" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G60" s="54"/>
     </row>
@@ -24429,7 +24445,7 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G66" s="50"/>
     </row>
@@ -24558,7 +24574,7 @@
         <v>85</v>
       </c>
       <c r="B75" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>266</v>
@@ -24566,7 +24582,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G75" s="50"/>
     </row>
@@ -24643,7 +24659,7 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G80" s="50"/>
     </row>
@@ -24660,7 +24676,7 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="86" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G81" s="50"/>
     </row>
@@ -24795,7 +24811,7 @@
         <v>283</v>
       </c>
       <c r="B90" s="84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>267</v>
@@ -24803,7 +24819,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G90" s="50"/>
     </row>
@@ -24833,7 +24849,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="86" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G92" s="50"/>
     </row>
@@ -24848,7 +24864,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="86" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G93" s="50"/>
     </row>
@@ -24910,7 +24926,7 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G97" s="50"/>
     </row>
@@ -24927,7 +24943,7 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="86" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G98" s="50"/>
     </row>
@@ -24981,13 +24997,13 @@
         <v>283</v>
       </c>
       <c r="B102" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="86" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G102" s="50"/>
     </row>
@@ -25034,7 +25050,7 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G105" s="50"/>
     </row>
@@ -25051,7 +25067,7 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="86" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G106" s="50"/>
     </row>
@@ -25060,13 +25076,13 @@
         <v>283</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G107" s="50"/>
     </row>
@@ -25083,7 +25099,7 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G108" s="50"/>
     </row>
@@ -25092,13 +25108,13 @@
         <v>283</v>
       </c>
       <c r="B109" s="86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="86" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G109" s="50"/>
     </row>
@@ -25115,7 +25131,7 @@
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="84" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G110" s="50"/>
     </row>
@@ -25124,13 +25140,13 @@
         <v>283</v>
       </c>
       <c r="B111" s="86" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="84" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G111" s="50"/>
     </row>
@@ -25139,13 +25155,13 @@
         <v>283</v>
       </c>
       <c r="B112" s="86" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="84" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G112" s="50"/>
     </row>
@@ -25206,19 +25222,19 @@
   <sheetData>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E6" t="s">
         <v>464</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>465</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>466</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>467</v>
-      </c>
-      <c r="M6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
@@ -25226,10 +25242,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K7">
         <v>54</v>
@@ -25246,10 +25262,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K8">
         <v>54</v>
@@ -25264,10 +25280,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K9">
         <v>54</v>
@@ -25281,10 +25297,10 @@
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K10">
         <v>54</v>
@@ -25298,12 +25314,12 @@
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E14" t="s">
         <v>197</v>
@@ -25314,10 +25330,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
@@ -25325,16 +25341,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
@@ -25342,7 +25358,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
@@ -25350,21 +25366,21 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
@@ -25375,10 +25391,10 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
+        <v>488</v>
+      </c>
+      <c r="K21" t="s">
         <v>489</v>
-      </c>
-      <c r="K21" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
@@ -25389,15 +25405,15 @@
         <v>5740</v>
       </c>
       <c r="J22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -25421,10 +25437,10 @@
   <sheetData>
     <row r="2" spans="6:24" ht="24" x14ac:dyDescent="0.4">
       <c r="F2" s="70" t="s">
+        <v>356</v>
+      </c>
+      <c r="X2" s="70" t="s">
         <v>357</v>
-      </c>
-      <c r="X2" s="70" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -25483,10 +25499,10 @@
         <v>317</v>
       </c>
       <c r="C3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>353</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -25497,10 +25513,10 @@
         <v>317</v>
       </c>
       <c r="C4" t="s">
+        <v>624</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>625</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -25511,10 +25527,10 @@
         <v>317</v>
       </c>
       <c r="C5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>685</v>
-      </c>
-      <c r="D5" s="116" t="s">
-        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -26794,18 +26810,18 @@
   <sheetData>
     <row r="1" spans="3:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E1" s="104" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="3:24" x14ac:dyDescent="0.25">
       <c r="F3" s="95" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G3" s="96"/>
       <c r="H3" s="96"/>
@@ -26813,7 +26829,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="40"/>
       <c r="L3" s="95" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M3" s="96"/>
       <c r="N3" s="96"/>
@@ -26821,7 +26837,7 @@
       <c r="P3" s="96"/>
       <c r="Q3" s="40"/>
       <c r="R3" s="95" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S3" s="96"/>
       <c r="T3" s="96"/>
@@ -26831,146 +26847,146 @@
     </row>
     <row r="4" spans="3:24" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E4" s="100" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F4" s="98" t="s">
+        <v>534</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="H4" s="41" t="s">
+        <v>606</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>534</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="N4" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="H4" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="I4" s="41" t="s">
+      <c r="O4" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="P4" s="41" t="s">
         <v>538</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="Q4" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="K4" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="L4" s="41" t="s">
+      <c r="R4" s="41" t="s">
+        <v>534</v>
+      </c>
+      <c r="S4" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="T4" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="U4" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="V4" s="41" t="s">
         <v>538</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="W4" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="Q4" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>535</v>
-      </c>
-      <c r="S4" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="T4" s="41" t="s">
-        <v>537</v>
-      </c>
-      <c r="U4" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="V4" s="41" t="s">
-        <v>539</v>
-      </c>
-      <c r="W4" s="41" t="s">
-        <v>540</v>
-      </c>
       <c r="X4" s="41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="F5" s="94" t="s">
+        <v>503</v>
+      </c>
+      <c r="G5" s="94" t="s">
         <v>504</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="H5" s="94" t="s">
         <v>505</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="I5" s="94" t="s">
         <v>506</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="J5" s="109" t="s">
         <v>507</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="K5" s="94" t="s">
         <v>508</v>
       </c>
-      <c r="K5" s="94" t="s">
+      <c r="L5" s="94" t="s">
         <v>509</v>
       </c>
-      <c r="L5" s="94" t="s">
+      <c r="M5" s="94" t="s">
         <v>510</v>
       </c>
-      <c r="M5" s="94" t="s">
+      <c r="N5" s="94" t="s">
         <v>511</v>
       </c>
-      <c r="N5" s="94" t="s">
+      <c r="O5" s="94" t="s">
         <v>512</v>
       </c>
-      <c r="O5" s="94" t="s">
+      <c r="P5" s="94" t="s">
         <v>513</v>
       </c>
-      <c r="P5" s="94" t="s">
+      <c r="Q5" s="94" t="s">
         <v>514</v>
       </c>
-      <c r="Q5" s="94" t="s">
+      <c r="R5" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="R5" s="94" t="s">
+      <c r="S5" s="94" t="s">
         <v>516</v>
       </c>
-      <c r="S5" s="94" t="s">
+      <c r="T5" s="94" t="s">
         <v>517</v>
       </c>
-      <c r="T5" s="94" t="s">
+      <c r="U5" s="94" t="s">
         <v>518</v>
       </c>
-      <c r="U5" s="94" t="s">
-        <v>519</v>
-      </c>
       <c r="V5" s="94" t="s">
+        <v>543</v>
+      </c>
+      <c r="W5" s="94" t="s">
         <v>544</v>
       </c>
-      <c r="W5" s="94" t="s">
-        <v>545</v>
-      </c>
       <c r="X5" s="94" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="F6" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H6" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G6" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H6" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I6" s="101" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J6" s="110">
         <v>10</v>
       </c>
       <c r="K6" s="101" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L6" s="101">
         <v>1</v>
@@ -27009,36 +27025,36 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F7" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G7" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H7" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G7" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H7" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I7" s="101" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J7" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K7" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K7" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L7" s="102">
         <v>2</v>
@@ -27077,36 +27093,36 @@
         <v>2</v>
       </c>
       <c r="X7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F8" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G8" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H8" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G8" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H8" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I8" s="101" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J8" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K8" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K8" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L8" s="102">
         <v>3</v>
@@ -27145,36 +27161,36 @@
         <v>3</v>
       </c>
       <c r="X8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F9" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G9" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H9" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G9" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H9" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I9" s="101" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J9" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K9" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K9" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L9" s="102">
         <v>4</v>
@@ -27213,33 +27229,33 @@
         <v>4</v>
       </c>
       <c r="X9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="F10" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H10" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G10" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H10" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I10" s="101" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J10" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K10" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K10" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L10" s="102">
         <v>5</v>
@@ -27278,33 +27294,33 @@
         <v>5</v>
       </c>
       <c r="X10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="F11" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G11" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H11" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G11" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H11" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I11" s="101" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J11" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K11" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K11" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L11" s="102">
         <v>6</v>
@@ -27343,33 +27359,33 @@
         <v>6</v>
       </c>
       <c r="X11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="F12" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H12" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G12" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H12" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I12" s="101" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J12" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K12" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K12" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L12" s="102">
         <v>7</v>
@@ -27408,33 +27424,33 @@
         <v>7</v>
       </c>
       <c r="X12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="F13" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H13" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G13" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H13" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I13" s="101" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J13" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K13" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K13" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L13" s="102">
         <v>8</v>
@@ -27473,33 +27489,33 @@
         <v>8</v>
       </c>
       <c r="X13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="F14" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H14" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G14" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H14" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I14" s="101" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J14" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K14" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K14" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L14" s="102">
         <v>9</v>
@@ -27538,33 +27554,33 @@
         <v>9</v>
       </c>
       <c r="X14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H15" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G15" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H15" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I15" s="101" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J15" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K15" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K15" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L15" s="102">
         <v>10</v>
@@ -27603,33 +27619,33 @@
         <v>10</v>
       </c>
       <c r="X15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="F16" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H16" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G16" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H16" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I16" s="101" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J16" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="K16" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K16" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L16" s="102">
         <v>11</v>
@@ -27668,36 +27684,36 @@
         <v>11</v>
       </c>
       <c r="X16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F17" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="G17" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H17" s="101" t="s">
         <v>552</v>
       </c>
-      <c r="G17" s="97" t="s">
-        <v>554</v>
-      </c>
-      <c r="H17" s="101" t="s">
-        <v>553</v>
-      </c>
       <c r="I17" s="101" t="s">
+        <v>568</v>
+      </c>
+      <c r="J17" s="101" t="s">
         <v>569</v>
       </c>
-      <c r="J17" s="101" t="s">
+      <c r="K17" s="101" t="s">
         <v>570</v>
-      </c>
-      <c r="K17" s="101" t="s">
-        <v>571</v>
       </c>
       <c r="L17" s="102">
         <v>12</v>
@@ -27736,135 +27752,135 @@
         <v>12</v>
       </c>
       <c r="X17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="H19" s="101" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="3:24" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="99" t="s">
+        <v>601</v>
+      </c>
+      <c r="E20" t="s">
         <v>602</v>
       </c>
-      <c r="E20" t="s">
-        <v>603</v>
-      </c>
       <c r="H20" s="112" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J20" s="101" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K20" s="101" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J21" s="101" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K21" s="101" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="99" t="s">
+        <v>604</v>
+      </c>
+      <c r="E22" t="s">
         <v>605</v>
       </c>
-      <c r="E22" t="s">
-        <v>606</v>
-      </c>
       <c r="H22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="3:24" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="3:24" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F33" s="107" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G33" s="107"/>
       <c r="H33" s="107"/>
       <c r="J33" s="105"/>
       <c r="K33" s="106" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L33" s="105"/>
       <c r="M33" s="105"/>
       <c r="N33" s="105"/>
       <c r="O33" s="107" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E34" s="94">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K35" t="s">
+        <v>574</v>
+      </c>
+      <c r="L35" t="s">
         <v>575</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>576</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>577</v>
       </c>
-      <c r="N35" t="s">
-        <v>578</v>
-      </c>
       <c r="O35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F36" s="10">
         <v>180000</v>
@@ -27876,12 +27892,12 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -27895,7 +27911,7 @@
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -27909,7 +27925,7 @@
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -27923,7 +27939,7 @@
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -27937,7 +27953,7 @@
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -27951,7 +27967,7 @@
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F42">
         <v>7</v>
@@ -27965,7 +27981,7 @@
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -27979,7 +27995,7 @@
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F44">
         <v>9</v>
@@ -27993,7 +28009,7 @@
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -28007,7 +28023,7 @@
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F46">
         <v>11</v>
@@ -28021,165 +28037,165 @@
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" spans="5:14" ht="21" x14ac:dyDescent="0.35">
       <c r="E52" s="103" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G52" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H52" t="s">
+        <v>585</v>
+      </c>
+      <c r="I52" t="s">
         <v>586</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>587</v>
-      </c>
-      <c r="J52" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G53" s="94" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G54" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K54" s="94" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M54" t="s">
         <v>183</v>
       </c>
       <c r="N54" s="94" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G55" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G57" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G58" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G60" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G62" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E63" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="5:12" ht="21" x14ac:dyDescent="0.35">
       <c r="E68" s="103" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G68" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J68" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
+        <v>588</v>
+      </c>
+      <c r="H69" t="s">
         <v>589</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>590</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>591</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>592</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>593</v>
-      </c>
-      <c r="L69" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="70" spans="5:12" x14ac:dyDescent="0.25">
@@ -28386,7 +28402,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -28434,7 +28450,7 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -28621,53 +28637,53 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>669</v>
+      </c>
+      <c r="C15" t="s">
         <v>670</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>671</v>
       </c>
-      <c r="D15" t="s">
-        <v>672</v>
-      </c>
       <c r="E15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>669</v>
+      </c>
+      <c r="C16" t="s">
         <v>670</v>
       </c>
-      <c r="C16" t="s">
-        <v>671</v>
-      </c>
       <c r="D16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>669</v>
+      </c>
+      <c r="C17" t="s">
         <v>670</v>
       </c>
-      <c r="C17" t="s">
-        <v>671</v>
-      </c>
       <c r="D17" t="s">
+        <v>673</v>
+      </c>
+      <c r="E17" t="s">
         <v>674</v>
       </c>
-      <c r="E17" t="s">
-        <v>675</v>
-      </c>
       <c r="F17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -29996,7 +30012,7 @@
         <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F1" t="s">
         <v>128</v>
@@ -30011,7 +30027,7 @@
         <v>242</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M1" t="s">
         <v>166</v>
@@ -30022,7 +30038,7 @@
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F2" t="s">
         <v>128</v>
@@ -30037,7 +30053,7 @@
         <v>236</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M2" t="s">
         <v>166</v>
@@ -30048,7 +30064,7 @@
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -30074,7 +30090,7 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F4" t="s">
         <v>128</v>
@@ -30089,7 +30105,7 @@
         <v>242</v>
       </c>
       <c r="L4" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M4" t="s">
         <v>166</v>
@@ -30100,7 +30116,7 @@
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F5" t="s">
         <v>128</v>
@@ -30115,7 +30131,7 @@
         <v>236</v>
       </c>
       <c r="L5" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M5" t="s">
         <v>166</v>
@@ -30126,7 +30142,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F6" t="s">
         <v>128</v>
@@ -30141,7 +30157,7 @@
         <v>165</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M6" t="s">
         <v>166</v>
@@ -30152,7 +30168,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F7" t="s">
         <v>128</v>
@@ -30167,7 +30183,7 @@
         <v>242</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M7" t="s">
         <v>166</v>
@@ -30178,7 +30194,7 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
@@ -30193,7 +30209,7 @@
         <v>236</v>
       </c>
       <c r="L8" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M8" t="s">
         <v>166</v>
@@ -30204,7 +30220,7 @@
         <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F9" t="s">
         <v>128</v>
@@ -30219,7 +30235,7 @@
         <v>165</v>
       </c>
       <c r="L9" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M9" t="s">
         <v>166</v>
@@ -30230,7 +30246,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F10" t="s">
         <v>128</v>
@@ -30245,7 +30261,7 @@
         <v>242</v>
       </c>
       <c r="L10" s="43" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M10" t="s">
         <v>166</v>
@@ -30256,7 +30272,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F11" t="s">
         <v>128</v>
@@ -30271,7 +30287,7 @@
         <v>236</v>
       </c>
       <c r="L11" s="43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M11" t="s">
         <v>166</v>
@@ -30282,7 +30298,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F12" t="s">
         <v>128</v>
@@ -30297,7 +30313,7 @@
         <v>165</v>
       </c>
       <c r="L12" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M12" t="s">
         <v>166</v>
@@ -30308,7 +30324,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F13" t="s">
         <v>128</v>
@@ -30334,7 +30350,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F14" t="s">
         <v>128</v>
@@ -30349,7 +30365,7 @@
         <v>236</v>
       </c>
       <c r="L14" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M14" t="s">
         <v>166</v>
@@ -30360,7 +30376,7 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F15" t="s">
         <v>128</v>
@@ -30375,7 +30391,7 @@
         <v>220</v>
       </c>
       <c r="L15" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M15" t="s">
         <v>166</v>
@@ -30386,7 +30402,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F16" t="s">
         <v>128</v>
@@ -30401,7 +30417,7 @@
         <v>242</v>
       </c>
       <c r="L16" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M16" t="s">
         <v>166</v>
@@ -30412,7 +30428,7 @@
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -30427,7 +30443,7 @@
         <v>208</v>
       </c>
       <c r="L17" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M17" t="s">
         <v>166</v>
@@ -30438,7 +30454,7 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F18" t="s">
         <v>128</v>
@@ -30453,7 +30469,7 @@
         <v>208</v>
       </c>
       <c r="L18" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M18" t="s">
         <v>166</v>
@@ -30464,7 +30480,7 @@
         <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F19" t="s">
         <v>128</v>
@@ -30480,7 +30496,7 @@
         <v>165</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M19" t="s">
         <v>166</v>
@@ -30491,7 +30507,7 @@
         <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F20" t="s">
         <v>128</v>
@@ -30507,7 +30523,7 @@
         <v>236</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M20" t="s">
         <v>166</v>
@@ -30518,7 +30534,7 @@
         <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
@@ -30534,7 +30550,7 @@
         <v>220</v>
       </c>
       <c r="L21" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M21" t="s">
         <v>166</v>
@@ -30545,7 +30561,7 @@
         <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F22" t="s">
         <v>128</v>
@@ -30561,7 +30577,7 @@
         <v>242</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M22" t="s">
         <v>166</v>
@@ -30572,7 +30588,7 @@
         <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -30588,7 +30604,7 @@
         <v>208</v>
       </c>
       <c r="L23" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M23" t="s">
         <v>166</v>
@@ -30599,7 +30615,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
@@ -30614,7 +30630,7 @@
         <v>208</v>
       </c>
       <c r="L24" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M24" t="s">
         <v>166</v>
@@ -30625,7 +30641,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F25" t="s">
         <v>128</v>
@@ -30640,7 +30656,7 @@
         <v>165</v>
       </c>
       <c r="L25" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M25" t="s">
         <v>166</v>
@@ -30651,7 +30667,7 @@
         <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -30666,7 +30682,7 @@
         <v>236</v>
       </c>
       <c r="L26" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M26" t="s">
         <v>166</v>
@@ -30677,7 +30693,7 @@
         <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F27" t="s">
         <v>128</v>
@@ -30692,7 +30708,7 @@
         <v>220</v>
       </c>
       <c r="L27" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M27" t="s">
         <v>166</v>
@@ -30703,7 +30719,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F28" t="s">
         <v>128</v>
@@ -30718,7 +30734,7 @@
         <v>242</v>
       </c>
       <c r="L28" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M28" t="s">
         <v>166</v>
@@ -30729,7 +30745,7 @@
         <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F29" t="s">
         <v>128</v>
@@ -30744,7 +30760,7 @@
         <v>208</v>
       </c>
       <c r="L29" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M29" t="s">
         <v>166</v>
@@ -30755,7 +30771,7 @@
         <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F30" t="s">
         <v>128</v>
@@ -30770,7 +30786,7 @@
         <v>208</v>
       </c>
       <c r="L30" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M30" t="s">
         <v>166</v>
@@ -30781,7 +30797,7 @@
         <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F31" t="s">
         <v>128</v>
@@ -30796,7 +30812,7 @@
         <v>165</v>
       </c>
       <c r="L31" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M31" t="s">
         <v>166</v>
@@ -30807,7 +30823,7 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F32" t="s">
         <v>128</v>
@@ -30822,7 +30838,7 @@
         <v>236</v>
       </c>
       <c r="L32" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M32" t="s">
         <v>166</v>
@@ -30833,7 +30849,7 @@
         <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F33" t="s">
         <v>128</v>
@@ -30848,7 +30864,7 @@
         <v>220</v>
       </c>
       <c r="L33" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M33" t="s">
         <v>166</v>
@@ -30859,7 +30875,7 @@
         <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F34" t="s">
         <v>128</v>
@@ -30874,7 +30890,7 @@
         <v>242</v>
       </c>
       <c r="L34" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M34" t="s">
         <v>166</v>
@@ -30885,7 +30901,7 @@
         <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F35" t="s">
         <v>128</v>
@@ -30900,7 +30916,7 @@
         <v>208</v>
       </c>
       <c r="L35" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M35" t="s">
         <v>166</v>
@@ -30911,7 +30927,7 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F36" t="s">
         <v>128</v>
@@ -30926,7 +30942,7 @@
         <v>208</v>
       </c>
       <c r="L36" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M36" t="s">
         <v>166</v>
@@ -30937,7 +30953,7 @@
         <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F37" t="s">
         <v>128</v>
@@ -30963,7 +30979,7 @@
         <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F38" t="s">
         <v>128</v>
@@ -30978,7 +30994,7 @@
         <v>236</v>
       </c>
       <c r="L38" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M38" t="s">
         <v>166</v>
@@ -30989,7 +31005,7 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F39" t="s">
         <v>128</v>
@@ -31004,7 +31020,7 @@
         <v>220</v>
       </c>
       <c r="L39" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M39" t="s">
         <v>166</v>
@@ -31015,7 +31031,7 @@
         <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F40" t="s">
         <v>128</v>
@@ -31030,7 +31046,7 @@
         <v>242</v>
       </c>
       <c r="L40" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M40" t="s">
         <v>166</v>
@@ -31041,7 +31057,7 @@
         <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F41" t="s">
         <v>128</v>
@@ -31056,7 +31072,7 @@
         <v>208</v>
       </c>
       <c r="L41" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M41" t="s">
         <v>166</v>
@@ -31067,7 +31083,7 @@
         <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F42" t="s">
         <v>128</v>
@@ -31082,7 +31098,7 @@
         <v>208</v>
       </c>
       <c r="L42" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M42" t="s">
         <v>166</v>
@@ -31093,7 +31109,7 @@
         <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F43" t="s">
         <v>128</v>
@@ -31108,7 +31124,7 @@
         <v>208</v>
       </c>
       <c r="L43" s="114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M43" t="s">
         <v>166</v>
@@ -31119,7 +31135,7 @@
         <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F44" t="s">
         <v>128</v>
@@ -31134,7 +31150,7 @@
         <v>208</v>
       </c>
       <c r="L44" s="114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M44" t="s">
         <v>166</v>
@@ -31145,7 +31161,7 @@
         <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F45" t="s">
         <v>128</v>
@@ -31160,7 +31176,7 @@
         <v>208</v>
       </c>
       <c r="L45" s="114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M45" t="s">
         <v>166</v>
@@ -31171,7 +31187,7 @@
         <v>73</v>
       </c>
       <c r="E46" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F46" t="s">
         <v>128</v>
@@ -31186,7 +31202,7 @@
         <v>165</v>
       </c>
       <c r="L46" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s">
         <v>166</v>
@@ -31197,7 +31213,7 @@
         <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F47" t="s">
         <v>128</v>
@@ -31212,7 +31228,7 @@
         <v>236</v>
       </c>
       <c r="L47" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M47" t="s">
         <v>166</v>
@@ -31223,7 +31239,7 @@
         <v>73</v>
       </c>
       <c r="E48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F48" t="s">
         <v>128</v>
@@ -31238,7 +31254,7 @@
         <v>220</v>
       </c>
       <c r="L48" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M48" t="s">
         <v>166</v>
@@ -31249,7 +31265,7 @@
         <v>73</v>
       </c>
       <c r="E49" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F49" t="s">
         <v>128</v>
@@ -31264,7 +31280,7 @@
         <v>242</v>
       </c>
       <c r="L49" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M49" t="s">
         <v>166</v>
@@ -31275,7 +31291,7 @@
         <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F50" t="s">
         <v>128</v>
@@ -31290,7 +31306,7 @@
         <v>208</v>
       </c>
       <c r="L50" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M50" t="s">
         <v>166</v>
@@ -31301,7 +31317,7 @@
         <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F51" t="s">
         <v>128</v>
@@ -31316,7 +31332,7 @@
         <v>208</v>
       </c>
       <c r="L51" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M51" t="s">
         <v>166</v>
@@ -31327,7 +31343,7 @@
         <v>73</v>
       </c>
       <c r="E52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F52" t="s">
         <v>128</v>
@@ -31342,7 +31358,7 @@
         <v>208</v>
       </c>
       <c r="L52" s="114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M52" t="s">
         <v>166</v>
@@ -31353,7 +31369,7 @@
         <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F53" t="s">
         <v>128</v>
@@ -31368,7 +31384,7 @@
         <v>208</v>
       </c>
       <c r="L53" s="114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M53" t="s">
         <v>166</v>
@@ -31379,7 +31395,7 @@
         <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F54" t="s">
         <v>128</v>
@@ -31394,7 +31410,7 @@
         <v>208</v>
       </c>
       <c r="L54" s="114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M54" t="s">
         <v>166</v>
@@ -31405,7 +31421,7 @@
         <v>73</v>
       </c>
       <c r="E55" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F55" t="s">
         <v>128</v>
@@ -31420,7 +31436,7 @@
         <v>165</v>
       </c>
       <c r="L55" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s">
         <v>166</v>
@@ -31431,7 +31447,7 @@
         <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F56" t="s">
         <v>128</v>
@@ -31446,7 +31462,7 @@
         <v>236</v>
       </c>
       <c r="L56" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M56" t="s">
         <v>166</v>
@@ -31457,7 +31473,7 @@
         <v>73</v>
       </c>
       <c r="E57" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F57" t="s">
         <v>128</v>
@@ -31472,7 +31488,7 @@
         <v>220</v>
       </c>
       <c r="L57" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M57" t="s">
         <v>166</v>
@@ -31483,7 +31499,7 @@
         <v>73</v>
       </c>
       <c r="E58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F58" t="s">
         <v>128</v>
@@ -31498,7 +31514,7 @@
         <v>242</v>
       </c>
       <c r="L58" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M58" t="s">
         <v>166</v>
@@ -31509,7 +31525,7 @@
         <v>73</v>
       </c>
       <c r="E59" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F59" t="s">
         <v>128</v>
@@ -31524,7 +31540,7 @@
         <v>208</v>
       </c>
       <c r="L59" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M59" t="s">
         <v>166</v>
@@ -31535,7 +31551,7 @@
         <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F60" t="s">
         <v>128</v>
@@ -31550,7 +31566,7 @@
         <v>208</v>
       </c>
       <c r="L60" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M60" t="s">
         <v>166</v>
@@ -31561,7 +31577,7 @@
         <v>73</v>
       </c>
       <c r="E61" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F61" t="s">
         <v>128</v>
@@ -31576,7 +31592,7 @@
         <v>208</v>
       </c>
       <c r="L61" s="114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M61" t="s">
         <v>166</v>
@@ -31587,7 +31603,7 @@
         <v>73</v>
       </c>
       <c r="E62" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F62" t="s">
         <v>128</v>
@@ -31602,7 +31618,7 @@
         <v>208</v>
       </c>
       <c r="L62" s="114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M62" t="s">
         <v>166</v>
@@ -31613,7 +31629,7 @@
         <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F63" t="s">
         <v>128</v>
@@ -31628,7 +31644,7 @@
         <v>208</v>
       </c>
       <c r="L63" s="114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M63" t="s">
         <v>166</v>
@@ -31639,7 +31655,7 @@
         <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F64" t="s">
         <v>128</v>
@@ -31654,7 +31670,7 @@
         <v>165</v>
       </c>
       <c r="L64" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M64" t="s">
         <v>166</v>
@@ -31665,7 +31681,7 @@
         <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F65" t="s">
         <v>128</v>
@@ -31680,7 +31696,7 @@
         <v>236</v>
       </c>
       <c r="L65" s="43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M65" t="s">
         <v>166</v>
@@ -31691,7 +31707,7 @@
         <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F66" t="s">
         <v>128</v>
@@ -31706,7 +31722,7 @@
         <v>220</v>
       </c>
       <c r="L66" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M66" t="s">
         <v>166</v>
@@ -31717,7 +31733,7 @@
         <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F67" t="s">
         <v>128</v>
@@ -31732,7 +31748,7 @@
         <v>242</v>
       </c>
       <c r="L67" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M67" t="s">
         <v>166</v>
@@ -31743,7 +31759,7 @@
         <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F68" t="s">
         <v>128</v>
@@ -31758,7 +31774,7 @@
         <v>208</v>
       </c>
       <c r="L68" s="114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M68" t="s">
         <v>166</v>
@@ -31769,7 +31785,7 @@
         <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F69" t="s">
         <v>128</v>
@@ -31784,7 +31800,7 @@
         <v>208</v>
       </c>
       <c r="L69" s="114" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M69" t="s">
         <v>166</v>
@@ -31795,7 +31811,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F70" t="s">
         <v>128</v>
@@ -31810,7 +31826,7 @@
         <v>208</v>
       </c>
       <c r="L70" s="114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M70" t="s">
         <v>166</v>
@@ -31821,7 +31837,7 @@
         <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F71" t="s">
         <v>128</v>
@@ -31836,7 +31852,7 @@
         <v>208</v>
       </c>
       <c r="L71" s="114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M71" t="s">
         <v>166</v>
@@ -31847,7 +31863,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F72" t="s">
         <v>128</v>
@@ -31862,7 +31878,7 @@
         <v>208</v>
       </c>
       <c r="L72" s="114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M72" t="s">
         <v>166</v>
